--- a/K-means output.xlsx
+++ b/K-means output.xlsx
@@ -416,7 +416,7 @@
         <v>-78.40304551</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -471,7 +471,7 @@
         <v>-78.5005039</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -515,7 +515,7 @@
         <v>-78.46118552</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -570,7 +570,7 @@
         <v>-78.36034474</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -614,7 +614,7 @@
         <v>-78.4609854</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -658,7 +658,7 @@
         <v>-78.50408969</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -691,7 +691,7 @@
         <v>-78.47959173</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -702,7 +702,7 @@
         <v>-78.47793278</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -768,7 +768,7 @@
         <v>-78.47076592000001</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -790,7 +790,7 @@
         <v>-78.40373215</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -801,7 +801,7 @@
         <v>-78.50098370000001</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -812,7 +812,7 @@
         <v>-78.38167213</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -823,7 +823,7 @@
         <v>-78.48063645000001</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -856,7 +856,7 @@
         <v>-78.48565755</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -911,7 +911,7 @@
         <v>-78.38764059</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -933,7 +933,7 @@
         <v>-78.5000555</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -988,7 +988,7 @@
         <v>-78.48458466</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1010,7 +1010,7 @@
         <v>-78.46904931</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>-78.46432862</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1032,7 +1032,7 @@
         <v>-78.45321355</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1087,7 +1087,7 @@
         <v>-78.4645696</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1098,7 +1098,7 @@
         <v>-78.50137529</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1120,7 +1120,7 @@
         <v>-78.50331721000001</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>-78.5039838</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1274,7 +1274,7 @@
         <v>-78.48046479</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1307,7 +1307,7 @@
         <v>-78.46381364</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>-78.3779358</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1373,7 +1373,7 @@
         <v>-78.485679</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1406,7 +1406,7 @@
         <v>-78.4616786</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1439,7 +1439,7 @@
         <v>-78.45583138000001</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1483,7 +1483,7 @@
         <v>-78.49931071</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>-78.37873397</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1571,7 +1571,7 @@
         <v>-78.4936632</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1593,7 +1593,7 @@
         <v>-78.47561535</v>
       </c>
       <c r="C110">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>-78.50278077</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1615,7 +1615,7 @@
         <v>-78.51247964</v>
       </c>
       <c r="C112">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1670,7 +1670,7 @@
         <v>-78.49385438</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1692,7 +1692,7 @@
         <v>-78.38600812</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1769,7 +1769,7 @@
         <v>-78.4689947</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1780,7 +1780,7 @@
         <v>-78.47171006000001</v>
       </c>
       <c r="C127">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1835,7 +1835,7 @@
         <v>-78.38429687</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1868,7 +1868,7 @@
         <v>-78.46887765</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>-78.4934896</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1912,7 +1912,7 @@
         <v>-78.45540223</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1934,7 +1934,7 @@
         <v>-78.37596056</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>-78.46866307000001</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2044,7 +2044,7 @@
         <v>-78.47823319</v>
       </c>
       <c r="C151">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2055,7 +2055,7 @@
         <v>-78.49503624</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2099,7 +2099,7 @@
         <v>-78.49876818</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2154,7 +2154,7 @@
         <v>-78.36948571000001</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2165,7 +2165,7 @@
         <v>-78.48160751</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2176,7 +2176,7 @@
         <v>-78.51316627999999</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2187,7 +2187,7 @@
         <v>-78.4628632</v>
       </c>
       <c r="C164">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2220,7 +2220,7 @@
         <v>-78.40845284</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2253,7 +2253,7 @@
         <v>-78.48946057000001</v>
       </c>
       <c r="C170">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2264,7 +2264,7 @@
         <v>-78.45660386</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2308,7 +2308,7 @@
         <v>-78.41067371</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2319,7 +2319,7 @@
         <v>-78.4813553</v>
       </c>
       <c r="C176">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2352,7 +2352,7 @@
         <v>-78.49205193</v>
       </c>
       <c r="C179">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2363,7 +2363,7 @@
         <v>-78.49582848</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2374,7 +2374,7 @@
         <v>-78.50432572</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2407,7 +2407,7 @@
         <v>-78.46419830000001</v>
       </c>
       <c r="C184">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2451,7 +2451,7 @@
         <v>-78.48429138</v>
       </c>
       <c r="C188">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2506,7 +2506,7 @@
         <v>-78.4814509</v>
       </c>
       <c r="C193">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2517,7 +2517,7 @@
         <v>-78.40802368999999</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2528,7 +2528,7 @@
         <v>-78.48856506</v>
       </c>
       <c r="C195">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2539,7 +2539,7 @@
         <v>-78.48790524</v>
       </c>
       <c r="C196">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2583,7 +2583,7 @@
         <v>-78.38240322999999</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2649,7 +2649,7 @@
         <v>-78.46853432</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2704,7 +2704,7 @@
         <v>-78.46360442</v>
       </c>
       <c r="C211">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2726,7 +2726,7 @@
         <v>-78.5005039</v>
       </c>
       <c r="C213">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2748,7 +2748,7 @@
         <v>-78.41021237</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -2814,7 +2814,7 @@
         <v>-78.48115780000001</v>
       </c>
       <c r="C221">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -2836,7 +2836,7 @@
         <v>-78.46823793999999</v>
       </c>
       <c r="C223">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2858,7 +2858,7 @@
         <v>-78.49788842</v>
       </c>
       <c r="C225">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -2869,7 +2869,7 @@
         <v>-78.4965043</v>
       </c>
       <c r="C226">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2880,7 +2880,7 @@
         <v>-78.50248036000001</v>
       </c>
       <c r="C227">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2891,7 +2891,7 @@
         <v>-78.48016438000001</v>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2924,7 +2924,7 @@
         <v>-78.5002179</v>
       </c>
       <c r="C231">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -2957,7 +2957,7 @@
         <v>-78.44946917999999</v>
       </c>
       <c r="C234">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3012,7 +3012,7 @@
         <v>-78.5048458</v>
       </c>
       <c r="C239">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3023,7 +3023,7 @@
         <v>-78.46115288</v>
       </c>
       <c r="C240">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3056,7 +3056,7 @@
         <v>-78.49638638</v>
       </c>
       <c r="C243">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3067,7 +3067,7 @@
         <v>-78.29126536</v>
       </c>
       <c r="C244">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3078,7 +3078,7 @@
         <v>-78.4929317</v>
       </c>
       <c r="C245">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3089,7 +3089,7 @@
         <v>-78.48052916</v>
       </c>
       <c r="C246">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3100,7 +3100,7 @@
         <v>-78.47793688</v>
       </c>
       <c r="C247">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3111,7 +3111,7 @@
         <v>-78.49913296</v>
       </c>
       <c r="C248">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3144,7 +3144,7 @@
         <v>-78.4840741</v>
       </c>
       <c r="C251">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3188,7 +3188,7 @@
         <v>-78.47697792</v>
       </c>
       <c r="C255">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3221,7 +3221,7 @@
         <v>-78.4735125</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3232,7 +3232,7 @@
         <v>-78.49771308</v>
       </c>
       <c r="C259">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3243,7 +3243,7 @@
         <v>-78.4907001</v>
       </c>
       <c r="C260">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3254,7 +3254,7 @@
         <v>-78.49598037</v>
       </c>
       <c r="C261">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3276,7 +3276,7 @@
         <v>-78.51316627999999</v>
       </c>
       <c r="C263">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3353,7 +3353,7 @@
         <v>-78.50406823</v>
       </c>
       <c r="C270">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3364,7 +3364,7 @@
         <v>-78.50526986</v>
       </c>
       <c r="C271">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3375,7 +3375,7 @@
         <v>-78.46752581</v>
       </c>
       <c r="C272">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3386,7 +3386,7 @@
         <v>-78.5135489</v>
       </c>
       <c r="C273">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3408,7 +3408,7 @@
         <v>-78.4678382</v>
       </c>
       <c r="C275">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3419,7 +3419,7 @@
         <v>-78.48488507</v>
       </c>
       <c r="C276">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3441,7 +3441,7 @@
         <v>-78.39377579000001</v>
       </c>
       <c r="C278">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3452,7 +3452,7 @@
         <v>-78.46958207</v>
       </c>
       <c r="C279">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3485,7 +3485,7 @@
         <v>-78.46424279</v>
       </c>
       <c r="C282">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3562,7 +3562,7 @@
         <v>-78.38949499</v>
       </c>
       <c r="C289">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3595,7 +3595,7 @@
         <v>-78.48012147</v>
       </c>
       <c r="C292">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3639,7 +3639,7 @@
         <v>-78.48969963</v>
       </c>
       <c r="C296">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3683,7 +3683,7 @@
         <v>-78.46395311000001</v>
       </c>
       <c r="C300">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3705,7 +3705,7 @@
         <v>-78.5030703</v>
       </c>
       <c r="C302">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3716,7 +3716,7 @@
         <v>-78.48249800000001</v>
       </c>
       <c r="C303">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3793,7 +3793,7 @@
         <v>-78.468191</v>
       </c>
       <c r="C310">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -3815,7 +3815,7 @@
         <v>-78.46415696</v>
       </c>
       <c r="C312">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -3837,7 +3837,7 @@
         <v>-78.50634696</v>
       </c>
       <c r="C314">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -3870,7 +3870,7 @@
         <v>-78.47061572</v>
       </c>
       <c r="C317">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -4002,7 +4002,7 @@
         <v>-78.46299824</v>
       </c>
       <c r="C329">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4013,7 +4013,7 @@
         <v>-78.49239525</v>
       </c>
       <c r="C330">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4035,7 +4035,7 @@
         <v>-78.49504528</v>
       </c>
       <c r="C332">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4079,7 +4079,7 @@
         <v>-78.44042477000001</v>
       </c>
       <c r="C336">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4090,7 +4090,7 @@
         <v>-78.48029313000001</v>
       </c>
       <c r="C337">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4112,7 +4112,7 @@
         <v>-78.48158789999999</v>
       </c>
       <c r="C339">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4123,7 +4123,7 @@
         <v>-78.50016293</v>
       </c>
       <c r="C340">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4134,7 +4134,7 @@
         <v>-78.49428353</v>
       </c>
       <c r="C341">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4178,7 +4178,7 @@
         <v>-78.48174688</v>
       </c>
       <c r="C345">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4200,7 +4200,7 @@
         <v>-78.48989544</v>
       </c>
       <c r="C347">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4222,7 +4222,7 @@
         <v>-78.47788987</v>
       </c>
       <c r="C349">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4288,7 +4288,7 @@
         <v>-78.49072156</v>
       </c>
       <c r="C355">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4332,7 +4332,7 @@
         <v>-78.49934754</v>
       </c>
       <c r="C359">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4387,7 +4387,7 @@
         <v>-78.46284804</v>
       </c>
       <c r="C364">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4420,7 +4420,7 @@
         <v>-78.38725266</v>
       </c>
       <c r="C367">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4431,7 +4431,7 @@
         <v>-78.39611358000001</v>
       </c>
       <c r="C368">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4464,7 +4464,7 @@
         <v>-78.47986397</v>
       </c>
       <c r="C371">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4486,7 +4486,7 @@
         <v>-78.48490653</v>
       </c>
       <c r="C373">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4508,7 +4508,7 @@
         <v>-78.47339449</v>
       </c>
       <c r="C375">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4519,7 +4519,7 @@
         <v>-78.3286303</v>
       </c>
       <c r="C376">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4563,7 +4563,7 @@
         <v>-78.33094773000001</v>
       </c>
       <c r="C380">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4574,7 +4574,7 @@
         <v>-78.44534394</v>
       </c>
       <c r="C381">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4585,7 +4585,7 @@
         <v>-78.50871112999999</v>
       </c>
       <c r="C382">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4596,7 +4596,7 @@
         <v>-78.36708245</v>
       </c>
       <c r="C383">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4607,7 +4607,7 @@
         <v>-78.47534713</v>
       </c>
       <c r="C384">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4618,7 +4618,7 @@
         <v>-78.49083957000001</v>
       </c>
       <c r="C385">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4662,7 +4662,7 @@
         <v>-78.46694137</v>
       </c>
       <c r="C389">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4717,7 +4717,7 @@
         <v>-78.4751862</v>
       </c>
       <c r="C394">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4761,7 +4761,7 @@
         <v>-78.44271538</v>
       </c>
       <c r="C398">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -4794,7 +4794,7 @@
         <v>-78.47956541000001</v>
       </c>
       <c r="C401">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -4805,7 +4805,7 @@
         <v>-78.4769914</v>
       </c>
       <c r="C402">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -4871,7 +4871,7 @@
         <v>-78.40999779000001</v>
       </c>
       <c r="C408">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -4904,7 +4904,7 @@
         <v>-78.49112925</v>
       </c>
       <c r="C411">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -4948,7 +4948,7 @@
         <v>-78.38072953</v>
       </c>
       <c r="C415">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -4959,7 +4959,7 @@
         <v>-78.4628599</v>
       </c>
       <c r="C416">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -5025,7 +5025,7 @@
         <v>-78.48759803</v>
       </c>
       <c r="C422">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5036,7 +5036,7 @@
         <v>-78.48125872</v>
       </c>
       <c r="C423">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5091,7 +5091,7 @@
         <v>-78.48516291999999</v>
       </c>
       <c r="C428">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5135,7 +5135,7 @@
         <v>-78.48175225</v>
       </c>
       <c r="C432">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5179,7 +5179,7 @@
         <v>-78.46327719</v>
       </c>
       <c r="C436">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5201,7 +5201,7 @@
         <v>-78.49756655</v>
       </c>
       <c r="C438">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5234,7 +5234,7 @@
         <v>-78.47607669</v>
       </c>
       <c r="C441">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5256,7 +5256,7 @@
         <v>-78.49608597</v>
       </c>
       <c r="C443">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5267,7 +5267,7 @@
         <v>-78.47372708</v>
       </c>
       <c r="C444">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5289,7 +5289,7 @@
         <v>-78.39697298999999</v>
       </c>
       <c r="C446">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5333,7 +5333,7 @@
         <v>-78.48471341</v>
       </c>
       <c r="C450">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5377,7 +5377,7 @@
         <v>-78.38392672000001</v>
       </c>
       <c r="C454">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5421,7 +5421,7 @@
         <v>-78.47091612</v>
       </c>
       <c r="C458">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5432,7 +5432,7 @@
         <v>-78.48213849</v>
       </c>
       <c r="C459">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5498,7 +5498,7 @@
         <v>-78.47128655</v>
       </c>
       <c r="C465">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5542,7 +5542,7 @@
         <v>-78.48968063</v>
       </c>
       <c r="C469">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5553,7 +5553,7 @@
         <v>-78.40562043</v>
       </c>
       <c r="C470">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5564,7 +5564,7 @@
         <v>-78.41055569</v>
       </c>
       <c r="C471">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5575,7 +5575,7 @@
         <v>-78.46871671</v>
       </c>
       <c r="C472">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5586,7 +5586,7 @@
         <v>-78.5048458</v>
       </c>
       <c r="C473">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -5630,7 +5630,7 @@
         <v>-78.4989901</v>
       </c>
       <c r="C477">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5674,7 +5674,7 @@
         <v>-78.47857651</v>
       </c>
       <c r="C481">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5707,7 +5707,7 @@
         <v>-78.4837189</v>
       </c>
       <c r="C484">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5740,7 +5740,7 @@
         <v>-78.51084885</v>
       </c>
       <c r="C487">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5751,7 +5751,7 @@
         <v>-78.46967429999999</v>
       </c>
       <c r="C488">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -5762,7 +5762,7 @@
         <v>-78.45924484</v>
       </c>
       <c r="C489">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -5773,7 +5773,7 @@
         <v>-78.47213920999999</v>
       </c>
       <c r="C490">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -5784,7 +5784,7 @@
         <v>-78.49249181</v>
       </c>
       <c r="C491">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -5806,7 +5806,7 @@
         <v>-78.50018439</v>
       </c>
       <c r="C493">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -5861,7 +5861,7 @@
         <v>-78.48629591</v>
       </c>
       <c r="C498">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -5872,7 +5872,7 @@
         <v>-78.38184533</v>
       </c>
       <c r="C499">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -5916,7 +5916,7 @@
         <v>-78.38407861</v>
       </c>
       <c r="C503">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -5927,7 +5927,7 @@
         <v>-78.4043437</v>
       </c>
       <c r="C504">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -5949,7 +5949,7 @@
         <v>-78.48072227999999</v>
       </c>
       <c r="C506">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -5993,7 +5993,7 @@
         <v>-78.47923281</v>
       </c>
       <c r="C510">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6004,7 +6004,7 @@
         <v>-78.4038609</v>
       </c>
       <c r="C511">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6026,7 +6026,7 @@
         <v>-78.49707303</v>
       </c>
       <c r="C513">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6037,7 +6037,7 @@
         <v>-78.40368924000001</v>
       </c>
       <c r="C514">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6048,7 +6048,7 @@
         <v>-78.44617543</v>
       </c>
       <c r="C515">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6081,7 +6081,7 @@
         <v>-78.48108705999999</v>
       </c>
       <c r="C518">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6114,7 +6114,7 @@
         <v>-78.48072227999999</v>
       </c>
       <c r="C521">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6136,7 +6136,7 @@
         <v>-78.49308190000001</v>
       </c>
       <c r="C523">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6158,7 +6158,7 @@
         <v>-78.48089247</v>
       </c>
       <c r="C525">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6169,7 +6169,7 @@
         <v>-78.47097101999999</v>
       </c>
       <c r="C526">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6356,7 +6356,7 @@
         <v>-78.46544442</v>
       </c>
       <c r="C543">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6367,7 +6367,7 @@
         <v>-78.40360341</v>
       </c>
       <c r="C544">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6378,7 +6378,7 @@
         <v>-78.5133372</v>
       </c>
       <c r="C545">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6422,7 +6422,7 @@
         <v>-78.4936398</v>
       </c>
       <c r="C549">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:3">
@@ -6466,7 +6466,7 @@
         <v>-78.39978394000001</v>
       </c>
       <c r="C553">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6477,7 +6477,7 @@
         <v>-78.48097977</v>
       </c>
       <c r="C554">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6554,7 +6554,7 @@
         <v>-78.49228797000001</v>
       </c>
       <c r="C561">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:3">
@@ -6576,7 +6576,7 @@
         <v>-78.49913296</v>
       </c>
       <c r="C563">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6587,7 +6587,7 @@
         <v>-78.47576556</v>
       </c>
       <c r="C564">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:3">
@@ -6609,7 +6609,7 @@
         <v>-78.49510965</v>
       </c>
       <c r="C566">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -6620,7 +6620,7 @@
         <v>-78.50044724999999</v>
       </c>
       <c r="C567">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -6631,7 +6631,7 @@
         <v>-78.49728690000001</v>
       </c>
       <c r="C568">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -6664,7 +6664,7 @@
         <v>-78.4984881</v>
       </c>
       <c r="C571">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:3">
@@ -6675,7 +6675,7 @@
         <v>-78.44396528999999</v>
       </c>
       <c r="C572">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6730,7 +6730,7 @@
         <v>-78.50477633</v>
       </c>
       <c r="C577">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6741,7 +6741,7 @@
         <v>-78.38004288</v>
       </c>
       <c r="C578">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -6752,7 +6752,7 @@
         <v>-78.49351105</v>
       </c>
       <c r="C579">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -6763,7 +6763,7 @@
         <v>-78.50680407999999</v>
       </c>
       <c r="C580">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -6796,7 +6796,7 @@
         <v>-78.38783606</v>
       </c>
       <c r="C583">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -6851,7 +6851,7 @@
         <v>-78.39300332000001</v>
       </c>
       <c r="C588">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="589" spans="1:3">
@@ -6873,7 +6873,7 @@
         <v>-78.40289799</v>
       </c>
       <c r="C590">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="591" spans="1:3">
@@ -6917,7 +6917,7 @@
         <v>-78.4541491</v>
       </c>
       <c r="C594">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -6939,7 +6939,7 @@
         <v>-78.49601087000001</v>
       </c>
       <c r="C596">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -6950,7 +6950,7 @@
         <v>-78.47637174</v>
       </c>
       <c r="C597">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -6961,7 +6961,7 @@
         <v>-78.50136456</v>
       </c>
       <c r="C598">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -7082,7 +7082,7 @@
         <v>-78.49479851</v>
       </c>
       <c r="C609">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:3">
@@ -7104,7 +7104,7 @@
         <v>-78.47327647</v>
       </c>
       <c r="C611">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -7115,7 +7115,7 @@
         <v>-78.3470088</v>
       </c>
       <c r="C612">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="613" spans="1:3">
@@ -7137,7 +7137,7 @@
         <v>-78.50215849999999</v>
       </c>
       <c r="C614">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:3">
@@ -7203,7 +7203,7 @@
         <v>-78.37797397999999</v>
       </c>
       <c r="C620">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="621" spans="1:3">
@@ -7214,7 +7214,7 @@
         <v>-78.48707374999999</v>
       </c>
       <c r="C621">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:3">
@@ -7269,7 +7269,7 @@
         <v>-78.49318919</v>
       </c>
       <c r="C626">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -7280,7 +7280,7 @@
         <v>-78.46271393000001</v>
       </c>
       <c r="C627">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -7335,7 +7335,7 @@
         <v>-78.47344812999999</v>
       </c>
       <c r="C632">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:3">
@@ -7390,7 +7390,7 @@
         <v>-78.40840993</v>
       </c>
       <c r="C637">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="638" spans="1:3">
@@ -7423,7 +7423,7 @@
         <v>-78.45294532</v>
       </c>
       <c r="C640">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:3">
@@ -7445,7 +7445,7 @@
         <v>-78.49516328999999</v>
       </c>
       <c r="C642">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:3">
@@ -7522,7 +7522,7 @@
         <v>-78.3779358</v>
       </c>
       <c r="C649">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="650" spans="1:3">
@@ -7544,7 +7544,7 @@
         <v>-78.49552807000001</v>
       </c>
       <c r="C651">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:3">
@@ -7566,7 +7566,7 @@
         <v>-78.45745144</v>
       </c>
       <c r="C653">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -7610,7 +7610,7 @@
         <v>-78.50913224</v>
       </c>
       <c r="C657">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:3">
@@ -7643,7 +7643,7 @@
         <v>-78.47400603</v>
       </c>
       <c r="C660">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:3">
@@ -7654,7 +7654,7 @@
         <v>-78.39626488</v>
       </c>
       <c r="C661">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="662" spans="1:3">
@@ -7676,7 +7676,7 @@
         <v>-78.40291676</v>
       </c>
       <c r="C663">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -7742,7 +7742,7 @@
         <v>-78.47179589</v>
       </c>
       <c r="C669">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:3">
@@ -7786,7 +7786,7 @@
         <v>-78.5081881</v>
       </c>
       <c r="C673">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:3">
@@ -7797,7 +7797,7 @@
         <v>-78.43525347000001</v>
       </c>
       <c r="C674">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:3">
@@ -7808,7 +7808,7 @@
         <v>-78.47535786</v>
       </c>
       <c r="C675">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:3">
@@ -7819,7 +7819,7 @@
         <v>-78.31884024</v>
       </c>
       <c r="C676">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="677" spans="1:3">
@@ -7830,7 +7830,7 @@
         <v>-78.49334601</v>
       </c>
       <c r="C677">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:3">
@@ -7841,7 +7841,7 @@
         <v>-78.49162278</v>
       </c>
       <c r="C678">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:3">
@@ -7874,7 +7874,7 @@
         <v>-78.50183663</v>
       </c>
       <c r="C681">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:3">
@@ -7896,7 +7896,7 @@
         <v>-78.4802073</v>
       </c>
       <c r="C683">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:3">
@@ -7907,7 +7907,7 @@
         <v>-78.49679408</v>
       </c>
       <c r="C684">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:3">
@@ -7918,7 +7918,7 @@
         <v>-78.48125783</v>
       </c>
       <c r="C685">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:3">
@@ -7929,7 +7929,7 @@
         <v>-78.47879109</v>
       </c>
       <c r="C686">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:3">
@@ -8094,7 +8094,7 @@
         <v>-78.37284560000001</v>
       </c>
       <c r="C701">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="702" spans="1:3">
@@ -8116,7 +8116,7 @@
         <v>-78.45737633</v>
       </c>
       <c r="C703">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:3">
@@ -8138,7 +8138,7 @@
         <v>-78.50346741</v>
       </c>
       <c r="C705">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:3">
@@ -8160,7 +8160,7 @@
         <v>-78.39755234</v>
       </c>
       <c r="C707">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="708" spans="1:3">
@@ -8171,7 +8171,7 @@
         <v>-78.49329648</v>
       </c>
       <c r="C708">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:3">
@@ -8182,7 +8182,7 @@
         <v>-78.46421105</v>
       </c>
       <c r="C709">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:3">
@@ -8193,7 +8193,7 @@
         <v>-78.46417842</v>
       </c>
       <c r="C710">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:3">
@@ -8204,7 +8204,7 @@
         <v>-78.35660574000001</v>
       </c>
       <c r="C711">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="712" spans="1:3">
@@ -8215,7 +8215,7 @@
         <v>-78.47703156</v>
       </c>
       <c r="C712">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:3">
@@ -8226,7 +8226,7 @@
         <v>-78.4954165</v>
       </c>
       <c r="C713">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:3">
@@ -8237,7 +8237,7 @@
         <v>-78.39296040000001</v>
       </c>
       <c r="C714">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="715" spans="1:3">
@@ -8248,7 +8248,7 @@
         <v>-78.44481287000001</v>
       </c>
       <c r="C715">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -8259,7 +8259,7 @@
         <v>-78.37811169</v>
       </c>
       <c r="C716">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="717" spans="1:3">
@@ -8281,7 +8281,7 @@
         <v>-78.48960576</v>
       </c>
       <c r="C718">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -8292,7 +8292,7 @@
         <v>-78.39416203</v>
       </c>
       <c r="C719">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="720" spans="1:3">
@@ -8325,7 +8325,7 @@
         <v>-78.38845429</v>
       </c>
       <c r="C722">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="723" spans="1:3">
@@ -8336,7 +8336,7 @@
         <v>-78.48121802</v>
       </c>
       <c r="C723">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:3">
@@ -8347,7 +8347,7 @@
         <v>-78.50194378</v>
       </c>
       <c r="C724">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:3">
@@ -8358,7 +8358,7 @@
         <v>-78.3500875</v>
       </c>
       <c r="C725">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="726" spans="1:3">
@@ -8391,7 +8391,7 @@
         <v>-78.49255744</v>
       </c>
       <c r="C728">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:3">
@@ -8402,7 +8402,7 @@
         <v>-78.4897443</v>
       </c>
       <c r="C729">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:3">
@@ -8413,7 +8413,7 @@
         <v>-78.46512255</v>
       </c>
       <c r="C730">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:3">
@@ -8435,7 +8435,7 @@
         <v>-78.50288328000001</v>
       </c>
       <c r="C732">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:3">
@@ -8457,7 +8457,7 @@
         <v>-78.4964143</v>
       </c>
       <c r="C734">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:3">
@@ -8468,7 +8468,7 @@
         <v>-78.46304116</v>
       </c>
       <c r="C735">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:3">
@@ -8501,7 +8501,7 @@
         <v>-78.48200438000001</v>
       </c>
       <c r="C738">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:3">
@@ -8534,7 +8534,7 @@
         <v>-78.47598197000001</v>
       </c>
       <c r="C741">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:3">
@@ -8556,7 +8556,7 @@
         <v>-78.49647220999999</v>
       </c>
       <c r="C743">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:3">
@@ -8567,7 +8567,7 @@
         <v>-78.49664924</v>
       </c>
       <c r="C744">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:3">
@@ -8578,7 +8578,7 @@
         <v>-78.44775610000001</v>
       </c>
       <c r="C745">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:3">
@@ -8600,7 +8600,7 @@
         <v>-78.47449956</v>
       </c>
       <c r="C747">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:3">
@@ -8611,7 +8611,7 @@
         <v>-78.47912368</v>
       </c>
       <c r="C748">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:3">
@@ -8633,7 +8633,7 @@
         <v>-78.50857215000001</v>
       </c>
       <c r="C750">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:3">
@@ -8765,7 +8765,7 @@
         <v>-78.4735799</v>
       </c>
       <c r="C762">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:3">
@@ -8776,7 +8776,7 @@
         <v>-78.49719272999999</v>
       </c>
       <c r="C763">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:3">
@@ -8842,7 +8842,7 @@
         <v>-78.47824129999999</v>
       </c>
       <c r="C769">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:3">
@@ -8864,7 +8864,7 @@
         <v>-78.49864650000001</v>
       </c>
       <c r="C771">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:3">
@@ -8897,7 +8897,7 @@
         <v>-78.44558533999999</v>
       </c>
       <c r="C774">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:3">
@@ -8919,7 +8919,7 @@
         <v>-78.49678871</v>
       </c>
       <c r="C776">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:3">
@@ -8952,7 +8952,7 @@
         <v>-78.46364197</v>
       </c>
       <c r="C779">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:3">
@@ -8996,7 +8996,7 @@
         <v>-78.47124872000001</v>
       </c>
       <c r="C783">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:3">
@@ -9051,7 +9051,7 @@
         <v>-78.47916932</v>
       </c>
       <c r="C788">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:3">
@@ -9062,7 +9062,7 @@
         <v>-78.49674043</v>
       </c>
       <c r="C789">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:3">
@@ -9194,7 +9194,7 @@
         <v>-78.46484359999999</v>
       </c>
       <c r="C801">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:3">
@@ -9216,7 +9216,7 @@
         <v>-78.48003564</v>
       </c>
       <c r="C803">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:3">
@@ -9293,7 +9293,7 @@
         <v>-78.39420495</v>
       </c>
       <c r="C810">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="811" spans="1:3">
@@ -9304,7 +9304,7 @@
         <v>-78.46231160000001</v>
       </c>
       <c r="C811">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:3">
@@ -9326,7 +9326,7 @@
         <v>-78.39356122</v>
       </c>
       <c r="C813">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="814" spans="1:3">
@@ -9359,7 +9359,7 @@
         <v>-78.4766152</v>
       </c>
       <c r="C816">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:3">
@@ -9370,7 +9370,7 @@
         <v>-78.35970100999999</v>
       </c>
       <c r="C817">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="818" spans="1:3">
@@ -9425,7 +9425,7 @@
         <v>-78.49486458</v>
       </c>
       <c r="C822">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:3">
@@ -9436,7 +9436,7 @@
         <v>-78.46593660000001</v>
       </c>
       <c r="C823">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:3">
@@ -9480,7 +9480,7 @@
         <v>-78.48840413000001</v>
       </c>
       <c r="C827">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:3">
@@ -9491,7 +9491,7 @@
         <v>-78.4689224</v>
       </c>
       <c r="C828">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:3">
@@ -9535,7 +9535,7 @@
         <v>-78.50228724</v>
       </c>
       <c r="C832">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:3">
@@ -9568,7 +9568,7 @@
         <v>-78.4770101</v>
       </c>
       <c r="C835">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:3">
@@ -9612,7 +9612,7 @@
         <v>-78.4703901</v>
       </c>
       <c r="C839">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:3">
@@ -9623,7 +9623,7 @@
         <v>-78.46831975000001</v>
       </c>
       <c r="C840">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:3">
@@ -9634,7 +9634,7 @@
         <v>-78.4947286</v>
       </c>
       <c r="C841">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:3">
@@ -9689,7 +9689,7 @@
         <v>-78.50305972</v>
       </c>
       <c r="C846">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:3">
@@ -9733,7 +9733,7 @@
         <v>-78.49942389</v>
       </c>
       <c r="C850">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:3">
@@ -9755,7 +9755,7 @@
         <v>-78.47984252000001</v>
       </c>
       <c r="C852">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:3">
@@ -9777,7 +9777,7 @@
         <v>-78.48467218</v>
       </c>
       <c r="C854">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:3">
@@ -9799,7 +9799,7 @@
         <v>-78.48617253</v>
       </c>
       <c r="C856">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:3">
@@ -9821,7 +9821,7 @@
         <v>-78.47257001</v>
       </c>
       <c r="C858">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:3">
@@ -9876,7 +9876,7 @@
         <v>-78.38859377</v>
       </c>
       <c r="C863">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="864" spans="1:3">
@@ -9887,7 +9887,7 @@
         <v>-78.47308335</v>
       </c>
       <c r="C864">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:3">
@@ -9920,7 +9920,7 @@
         <v>-78.39567479999999</v>
       </c>
       <c r="C867">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="868" spans="1:3">
@@ -9931,7 +9931,7 @@
         <v>-78.46544442</v>
       </c>
       <c r="C868">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:3">
@@ -9964,7 +9964,7 @@
         <v>-78.41044840000001</v>
       </c>
       <c r="C871">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="872" spans="1:3">
@@ -9975,7 +9975,7 @@
         <v>-78.47492871</v>
       </c>
       <c r="C872">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:3">
@@ -9986,7 +9986,7 @@
         <v>-78.47536859</v>
       </c>
       <c r="C873">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:3">
@@ -9997,7 +9997,7 @@
         <v>-78.47445664</v>
       </c>
       <c r="C874">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:3">
@@ -10107,7 +10107,7 @@
         <v>-78.36062637000001</v>
       </c>
       <c r="C884">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="885" spans="1:3">
@@ -10129,7 +10129,7 @@
         <v>-78.4958714</v>
       </c>
       <c r="C886">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:3">
@@ -10151,7 +10151,7 @@
         <v>-78.44054404000001</v>
       </c>
       <c r="C888">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:3">
@@ -10173,7 +10173,7 @@
         <v>-78.49954065999999</v>
       </c>
       <c r="C890">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:3">
@@ -10184,7 +10184,7 @@
         <v>-78.4865145</v>
       </c>
       <c r="C891">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:3">
@@ -10206,7 +10206,7 @@
         <v>-78.4689224</v>
       </c>
       <c r="C893">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:3">
@@ -10228,7 +10228,7 @@
         <v>-78.3955986</v>
       </c>
       <c r="C895">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="896" spans="1:3">
@@ -10316,7 +10316,7 @@
         <v>-78.50498956</v>
       </c>
       <c r="C903">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:3">
@@ -10327,7 +10327,7 @@
         <v>-78.49710159999999</v>
       </c>
       <c r="C904">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:3">
@@ -10349,7 +10349,7 @@
         <v>-78.4700418</v>
       </c>
       <c r="C906">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:3">
@@ -10360,7 +10360,7 @@
         <v>-78.4947945</v>
       </c>
       <c r="C907">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:3">
@@ -10426,7 +10426,7 @@
         <v>-78.48710057</v>
       </c>
       <c r="C913">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:3">
@@ -10448,7 +10448,7 @@
         <v>-78.48419842</v>
       </c>
       <c r="C915">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:3">
@@ -10459,7 +10459,7 @@
         <v>-78.48213849</v>
       </c>
       <c r="C916">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:3">
@@ -10470,7 +10470,7 @@
         <v>-78.49432643999999</v>
       </c>
       <c r="C917">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:3">
@@ -10481,7 +10481,7 @@
         <v>-78.5015636</v>
       </c>
       <c r="C918">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:3">
@@ -10569,7 +10569,7 @@
         <v>-78.46214430000001</v>
       </c>
       <c r="C926">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:3">
@@ -10580,7 +10580,7 @@
         <v>-78.48992762</v>
       </c>
       <c r="C927">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:3">
@@ -10591,7 +10591,7 @@
         <v>-78.47306189</v>
       </c>
       <c r="C928">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:3">
@@ -10613,7 +10613,7 @@
         <v>-78.46278366999999</v>
       </c>
       <c r="C930">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:3">
@@ -10668,7 +10668,7 @@
         <v>-78.49578529999999</v>
       </c>
       <c r="C935">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:3">
@@ -10701,7 +10701,7 @@
         <v>-78.49887547</v>
       </c>
       <c r="C938">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:3">
@@ -10767,7 +10767,7 @@
         <v>-78.46750435</v>
       </c>
       <c r="C944">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:3">
@@ -10855,7 +10855,7 @@
         <v>-78.39542803000001</v>
       </c>
       <c r="C952">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="953" spans="1:3">
@@ -10921,7 +10921,7 @@
         <v>-78.49847025</v>
       </c>
       <c r="C958">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:3">
@@ -11020,7 +11020,7 @@
         <v>-78.3967083</v>
       </c>
       <c r="C967">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="968" spans="1:3">
@@ -11031,7 +11031,7 @@
         <v>-78.47778258</v>
       </c>
       <c r="C968">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:3">
@@ -11042,7 +11042,7 @@
         <v>-78.49992792</v>
       </c>
       <c r="C969">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:3">
@@ -11053,7 +11053,7 @@
         <v>-78.50604233</v>
       </c>
       <c r="C970">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:3">
@@ -11064,7 +11064,7 @@
         <v>-78.49681553000001</v>
       </c>
       <c r="C971">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:3">
@@ -11075,7 +11075,7 @@
         <v>-78.3925522</v>
       </c>
       <c r="C972">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="973" spans="1:3">
@@ -11086,7 +11086,7 @@
         <v>-78.46240640000001</v>
       </c>
       <c r="C973">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:3">
@@ -11097,7 +11097,7 @@
         <v>-78.46156992</v>
       </c>
       <c r="C974">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:3">
@@ -11108,7 +11108,7 @@
         <v>-78.46349177</v>
       </c>
       <c r="C975">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:3">
@@ -11119,7 +11119,7 @@
         <v>-78.37375579</v>
       </c>
       <c r="C976">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="977" spans="1:3">
@@ -11229,7 +11229,7 @@
         <v>-78.48449883000001</v>
       </c>
       <c r="C986">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:3">
@@ -11273,7 +11273,7 @@
         <v>-78.44831172000001</v>
       </c>
       <c r="C990">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:3">
@@ -11317,7 +11317,7 @@
         <v>-78.50057063</v>
       </c>
       <c r="C994">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:3">
@@ -11350,7 +11350,7 @@
         <v>-78.47033677</v>
       </c>
       <c r="C997">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:3">
@@ -11361,7 +11361,7 @@
         <v>-78.46248326</v>
       </c>
       <c r="C998">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:3">
@@ -11394,7 +11394,7 @@
         <v>-78.36901364000001</v>
       </c>
       <c r="C1001">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1002" spans="1:3">
@@ -11427,7 +11427,7 @@
         <v>-78.49951919999999</v>
       </c>
       <c r="C1004">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:3">
@@ -11526,7 +11526,7 @@
         <v>-78.39454827</v>
       </c>
       <c r="C1013">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1014" spans="1:3">
@@ -11559,7 +11559,7 @@
         <v>-78.47675959999999</v>
       </c>
       <c r="C1016">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:3">
@@ -11570,7 +11570,7 @@
         <v>-78.38510689</v>
       </c>
       <c r="C1017">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1018" spans="1:3">
@@ -11614,7 +11614,7 @@
         <v>-78.4625369</v>
       </c>
       <c r="C1021">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:3">
@@ -11636,7 +11636,7 @@
         <v>-78.49179444000001</v>
       </c>
       <c r="C1023">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:3">
@@ -11724,7 +11724,7 @@
         <v>-78.4936632</v>
       </c>
       <c r="C1031">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:3">
@@ -11757,7 +11757,7 @@
         <v>-78.37237353</v>
       </c>
       <c r="C1034">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1035" spans="1:3">
@@ -11823,7 +11823,7 @@
         <v>-78.38307914000001</v>
       </c>
       <c r="C1040">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1041" spans="1:3">
@@ -11834,7 +11834,7 @@
         <v>-78.44546733</v>
       </c>
       <c r="C1041">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:3">
@@ -11856,7 +11856,7 @@
         <v>-78.47990689</v>
       </c>
       <c r="C1043">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:3">
@@ -11911,7 +11911,7 @@
         <v>-78.4721133</v>
       </c>
       <c r="C1048">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:3">
@@ -11944,7 +11944,7 @@
         <v>-78.4706479</v>
       </c>
       <c r="C1051">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:3">
@@ -11955,7 +11955,7 @@
         <v>-78.49288878</v>
       </c>
       <c r="C1052">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:3">
@@ -11977,7 +11977,7 @@
         <v>-78.47497162000001</v>
       </c>
       <c r="C1054">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:3">
@@ -11988,7 +11988,7 @@
         <v>-78.49528668000001</v>
       </c>
       <c r="C1055">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:3">
@@ -12065,7 +12065,7 @@
         <v>-78.36206304</v>
       </c>
       <c r="C1062">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1063" spans="1:3">
@@ -12076,7 +12076,7 @@
         <v>-78.46982178</v>
       </c>
       <c r="C1063">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:3">
@@ -12087,7 +12087,7 @@
         <v>-78.46879182000001</v>
       </c>
       <c r="C1064">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:3">
@@ -12153,7 +12153,7 @@
         <v>-78.48365250000001</v>
       </c>
       <c r="C1070">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:3">
@@ -12175,7 +12175,7 @@
         <v>-78.49824246999999</v>
       </c>
       <c r="C1072">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:3">
@@ -12252,7 +12252,7 @@
         <v>-78.47694573</v>
       </c>
       <c r="C1079">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:3">
@@ -12318,7 +12318,7 @@
         <v>-78.47309408</v>
       </c>
       <c r="C1085">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:3">
@@ -12351,7 +12351,7 @@
         <v>-78.49166569</v>
       </c>
       <c r="C1088">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:3">
@@ -12362,7 +12362,7 @@
         <v>-78.47299341</v>
       </c>
       <c r="C1089">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:3">
@@ -12373,7 +12373,7 @@
         <v>-78.50372491</v>
       </c>
       <c r="C1090">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:3">
@@ -12395,7 +12395,7 @@
         <v>-78.48869120000001</v>
       </c>
       <c r="C1092">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:3">
@@ -12483,7 +12483,7 @@
         <v>-78.49691199999999</v>
       </c>
       <c r="C1100">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:3">
@@ -12494,7 +12494,7 @@
         <v>-78.48063645000001</v>
       </c>
       <c r="C1101">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102" spans="1:3">
@@ -12516,7 +12516,7 @@
         <v>-78.46721513</v>
       </c>
       <c r="C1103">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104" spans="1:3">
@@ -12527,7 +12527,7 @@
         <v>-78.37284560000001</v>
       </c>
       <c r="C1104">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1105" spans="1:3">
@@ -12549,7 +12549,7 @@
         <v>-78.49823173999999</v>
       </c>
       <c r="C1106">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:3">
@@ -12571,7 +12571,7 @@
         <v>-78.4628632</v>
       </c>
       <c r="C1108">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:3">
@@ -12593,7 +12593,7 @@
         <v>-78.37284560000001</v>
       </c>
       <c r="C1110">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1111" spans="1:3">
@@ -12604,7 +12604,7 @@
         <v>-78.48671226</v>
       </c>
       <c r="C1111">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:3">
@@ -12626,7 +12626,7 @@
         <v>-78.49592564</v>
       </c>
       <c r="C1113">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114" spans="1:3">
@@ -12659,7 +12659,7 @@
         <v>-78.39528292</v>
       </c>
       <c r="C1116">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1117" spans="1:3">
@@ -12670,7 +12670,7 @@
         <v>-78.47576187999999</v>
       </c>
       <c r="C1117">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118" spans="1:3">
@@ -12681,7 +12681,7 @@
         <v>-78.47453299</v>
       </c>
       <c r="C1118">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119" spans="1:3">
@@ -12692,7 +12692,7 @@
         <v>-78.3893126</v>
       </c>
       <c r="C1119">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1120" spans="1:3">
@@ -12714,7 +12714,7 @@
         <v>-78.50217995</v>
       </c>
       <c r="C1121">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1122" spans="1:3">
@@ -12747,7 +12747,7 @@
         <v>-78.3955986</v>
       </c>
       <c r="C1124">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1125" spans="1:3">
@@ -12802,7 +12802,7 @@
         <v>-78.4792442</v>
       </c>
       <c r="C1129">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:3">
@@ -12824,7 +12824,7 @@
         <v>-78.49497018</v>
       </c>
       <c r="C1131">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132" spans="1:3">
@@ -12835,7 +12835,7 @@
         <v>-78.46435008</v>
       </c>
       <c r="C1132">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133" spans="1:3">
@@ -12868,7 +12868,7 @@
         <v>-78.46733269000001</v>
       </c>
       <c r="C1135">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:3">
@@ -12901,7 +12901,7 @@
         <v>-78.47491805999999</v>
       </c>
       <c r="C1138">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139" spans="1:3">
@@ -12934,7 +12934,7 @@
         <v>-78.40564189</v>
       </c>
       <c r="C1141">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1142" spans="1:3">
@@ -12945,7 +12945,7 @@
         <v>-78.48364051999999</v>
       </c>
       <c r="C1142">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1143" spans="1:3">
@@ -12967,7 +12967,7 @@
         <v>-78.46165714</v>
       </c>
       <c r="C1144">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145" spans="1:3">
@@ -12978,7 +12978,7 @@
         <v>-78.49162278</v>
       </c>
       <c r="C1145">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146" spans="1:3">
@@ -13099,7 +13099,7 @@
         <v>-78.47465145</v>
       </c>
       <c r="C1156">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:3">
@@ -13187,7 +13187,7 @@
         <v>-78.47786841</v>
       </c>
       <c r="C1164">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:3">
@@ -13264,7 +13264,7 @@
         <v>-78.46308406999999</v>
       </c>
       <c r="C1171">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:3">
@@ -13286,7 +13286,7 @@
         <v>-78.39471992999999</v>
       </c>
       <c r="C1173">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1174" spans="1:3">
@@ -13308,7 +13308,7 @@
         <v>-78.38613685999999</v>
       </c>
       <c r="C1175">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1176" spans="1:3">
@@ -13319,7 +13319,7 @@
         <v>-78.51333794</v>
       </c>
       <c r="C1176">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:3">
@@ -13330,7 +13330,7 @@
         <v>-78.48994908</v>
       </c>
       <c r="C1177">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:3">
@@ -13341,7 +13341,7 @@
         <v>-78.46900220000001</v>
       </c>
       <c r="C1178">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:3">
@@ -13407,7 +13407,7 @@
         <v>-78.40742287</v>
       </c>
       <c r="C1184">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1185" spans="1:3">
@@ -13440,7 +13440,7 @@
         <v>-78.50381074000001</v>
       </c>
       <c r="C1187">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:3">
@@ -13495,7 +13495,7 @@
         <v>-78.45858601</v>
       </c>
       <c r="C1192">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:3">
@@ -13528,7 +13528,7 @@
         <v>-78.48087750000001</v>
       </c>
       <c r="C1195">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:3">
@@ -13550,7 +13550,7 @@
         <v>-78.48063645000001</v>
       </c>
       <c r="C1197">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:3">
@@ -13572,7 +13572,7 @@
         <v>-78.50394879</v>
       </c>
       <c r="C1199">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:3">
@@ -13583,7 +13583,7 @@
         <v>-78.4467745</v>
       </c>
       <c r="C1200">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:3">
@@ -13660,7 +13660,7 @@
         <v>-78.49381146</v>
       </c>
       <c r="C1207">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:3">
@@ -13682,7 +13682,7 @@
         <v>-78.34682641000001</v>
       </c>
       <c r="C1209">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1210" spans="1:3">
@@ -13693,7 +13693,7 @@
         <v>-78.39459118000001</v>
       </c>
       <c r="C1210">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1211" spans="1:3">
@@ -13704,7 +13704,7 @@
         <v>-78.46866307000001</v>
       </c>
       <c r="C1211">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212" spans="1:3">
@@ -13737,7 +13737,7 @@
         <v>-78.44420301</v>
       </c>
       <c r="C1214">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:3">
@@ -13792,7 +13792,7 @@
         <v>-78.47821173</v>
       </c>
       <c r="C1219">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:3">
@@ -13847,7 +13847,7 @@
         <v>-78.47500381</v>
       </c>
       <c r="C1224">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225" spans="1:3">
@@ -13880,7 +13880,7 @@
         <v>-78.3955986</v>
       </c>
       <c r="C1227">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1228" spans="1:3">
@@ -13891,7 +13891,7 @@
         <v>-78.481832</v>
       </c>
       <c r="C1228">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229" spans="1:3">
@@ -13935,7 +13935,7 @@
         <v>-78.50102124</v>
       </c>
       <c r="C1232">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233" spans="1:3">
@@ -13957,7 +13957,7 @@
         <v>-78.50053844</v>
       </c>
       <c r="C1234">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:3">
@@ -13968,7 +13968,7 @@
         <v>-78.48205265999999</v>
       </c>
       <c r="C1235">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:3">
@@ -13979,7 +13979,7 @@
         <v>-78.4678382</v>
       </c>
       <c r="C1236">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:3">
@@ -13990,7 +13990,7 @@
         <v>-78.49464831</v>
       </c>
       <c r="C1237">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:3">
@@ -14078,7 +14078,7 @@
         <v>-78.46642447000001</v>
       </c>
       <c r="C1245">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:3">
@@ -14122,7 +14122,7 @@
         <v>-78.48611083999999</v>
       </c>
       <c r="C1249">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:3">
@@ -14166,7 +14166,7 @@
         <v>-78.47662387</v>
       </c>
       <c r="C1253">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254" spans="1:3">
@@ -14177,7 +14177,7 @@
         <v>-78.5015636</v>
       </c>
       <c r="C1254">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255" spans="1:3">
@@ -14265,7 +14265,7 @@
         <v>-78.50114997999999</v>
       </c>
       <c r="C1262">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:3">
@@ -14276,7 +14276,7 @@
         <v>-78.4455317</v>
       </c>
       <c r="C1263">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:3">
@@ -14287,7 +14287,7 @@
         <v>-78.46664604999999</v>
       </c>
       <c r="C1264">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:3">
@@ -14298,7 +14298,7 @@
         <v>-78.41004071</v>
       </c>
       <c r="C1265">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1266" spans="1:3">
@@ -14342,7 +14342,7 @@
         <v>-78.48183808</v>
       </c>
       <c r="C1269">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270" spans="1:3">
@@ -14353,7 +14353,7 @@
         <v>-78.38995633</v>
       </c>
       <c r="C1270">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1271" spans="1:3">
@@ -14529,7 +14529,7 @@
         <v>-78.50024876000001</v>
       </c>
       <c r="C1286">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1287" spans="1:3">
@@ -14540,7 +14540,7 @@
         <v>-78.4926742</v>
       </c>
       <c r="C1287">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288" spans="1:3">
@@ -14551,7 +14551,7 @@
         <v>-78.48415550999999</v>
       </c>
       <c r="C1288">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1289" spans="1:3">
@@ -14584,7 +14584,7 @@
         <v>-78.49333939</v>
       </c>
       <c r="C1291">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292" spans="1:3">
@@ -14639,7 +14639,7 @@
         <v>-78.4679764</v>
       </c>
       <c r="C1296">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297" spans="1:3">
@@ -14760,7 +14760,7 @@
         <v>-78.48793206000001</v>
       </c>
       <c r="C1307">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="1:3">
@@ -14793,7 +14793,7 @@
         <v>-78.46484359999999</v>
       </c>
       <c r="C1310">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1311" spans="1:3">
@@ -14826,7 +14826,7 @@
         <v>-78.48086176</v>
       </c>
       <c r="C1313">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314" spans="1:3">
@@ -14848,7 +14848,7 @@
         <v>-78.48587212</v>
       </c>
       <c r="C1315">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316" spans="1:3">
@@ -14859,7 +14859,7 @@
         <v>-78.48037896</v>
       </c>
       <c r="C1316">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317" spans="1:3">
@@ -14892,7 +14892,7 @@
         <v>-78.48243889</v>
       </c>
       <c r="C1319">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1320" spans="1:3">
@@ -14914,7 +14914,7 @@
         <v>-78.49666533</v>
       </c>
       <c r="C1321">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322" spans="1:3">
@@ -14925,7 +14925,7 @@
         <v>-78.40712247</v>
       </c>
       <c r="C1322">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1323" spans="1:3">
@@ -14947,7 +14947,7 @@
         <v>-78.5133372</v>
       </c>
       <c r="C1324">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325" spans="1:3">
@@ -14991,7 +14991,7 @@
         <v>-78.50271639</v>
       </c>
       <c r="C1328">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329" spans="1:3">
@@ -15013,7 +15013,7 @@
         <v>-78.4936632</v>
       </c>
       <c r="C1330">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331" spans="1:3">
@@ -15024,7 +15024,7 @@
         <v>-78.50020585</v>
       </c>
       <c r="C1331">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332" spans="1:3">
@@ -15046,7 +15046,7 @@
         <v>-78.49224270000001</v>
       </c>
       <c r="C1333">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1334" spans="1:3">
@@ -15101,7 +15101,7 @@
         <v>-78.47289558999999</v>
       </c>
       <c r="C1338">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1339" spans="1:3">
@@ -15156,7 +15156,7 @@
         <v>-78.46705374</v>
       </c>
       <c r="C1343">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1344" spans="1:3">
@@ -15167,7 +15167,7 @@
         <v>-78.49857505999999</v>
       </c>
       <c r="C1344">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1345" spans="1:3">
@@ -15255,7 +15255,7 @@
         <v>-78.38864741</v>
       </c>
       <c r="C1352">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1353" spans="1:3">
@@ -15266,7 +15266,7 @@
         <v>-78.46364197</v>
       </c>
       <c r="C1353">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1354" spans="1:3">
@@ -15277,7 +15277,7 @@
         <v>-78.47497967</v>
       </c>
       <c r="C1354">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1355" spans="1:3">
@@ -15288,7 +15288,7 @@
         <v>-78.43690571</v>
       </c>
       <c r="C1355">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1356" spans="1:3">
@@ -15299,7 +15299,7 @@
         <v>-78.49503455</v>
       </c>
       <c r="C1356">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1357" spans="1:3">
@@ -15310,7 +15310,7 @@
         <v>-78.4904141</v>
       </c>
       <c r="C1357">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1358" spans="1:3">
@@ -15420,7 +15420,7 @@
         <v>-78.49476746000001</v>
       </c>
       <c r="C1367">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1368" spans="1:3">
@@ -15442,7 +15442,7 @@
         <v>-78.49374589999999</v>
       </c>
       <c r="C1369">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1370" spans="1:3">
@@ -15486,7 +15486,7 @@
         <v>-78.38172731</v>
       </c>
       <c r="C1373">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1374" spans="1:3">
@@ -15497,7 +15497,7 @@
         <v>-78.48056671000001</v>
       </c>
       <c r="C1374">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1375" spans="1:3">
@@ -15508,7 +15508,7 @@
         <v>-78.3849337</v>
       </c>
       <c r="C1375">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1376" spans="1:3">
@@ -15530,7 +15530,7 @@
         <v>-78.50010025</v>
       </c>
       <c r="C1377">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1378" spans="1:3">
@@ -15563,7 +15563,7 @@
         <v>-78.48987398</v>
       </c>
       <c r="C1380">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1381" spans="1:3">
@@ -15618,7 +15618,7 @@
         <v>-78.38939843</v>
       </c>
       <c r="C1385">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1386" spans="1:3">
@@ -15651,7 +15651,7 @@
         <v>-78.47995254</v>
       </c>
       <c r="C1388">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1389" spans="1:3">
@@ -15673,7 +15673,7 @@
         <v>-78.5020325</v>
       </c>
       <c r="C1390">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1391" spans="1:3">
@@ -15684,7 +15684,7 @@
         <v>-78.47394702</v>
       </c>
       <c r="C1391">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1392" spans="1:3">
@@ -15706,7 +15706,7 @@
         <v>-78.47501454</v>
       </c>
       <c r="C1393">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1394" spans="1:3">
@@ -15728,7 +15728,7 @@
         <v>-78.4832215</v>
       </c>
       <c r="C1395">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1396" spans="1:3">
@@ -15750,7 +15750,7 @@
         <v>-78.46951110000001</v>
       </c>
       <c r="C1397">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1398" spans="1:3">
@@ -15761,7 +15761,7 @@
         <v>-78.50716387</v>
       </c>
       <c r="C1398">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1399" spans="1:3">
@@ -15783,7 +15783,7 @@
         <v>-78.49960503</v>
       </c>
       <c r="C1400">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1401" spans="1:3">
@@ -15816,7 +15816,7 @@
         <v>-78.4842628</v>
       </c>
       <c r="C1403">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1404" spans="1:3">
@@ -15827,7 +15827,7 @@
         <v>-78.39802441</v>
       </c>
       <c r="C1404">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1405" spans="1:3">
@@ -15838,7 +15838,7 @@
         <v>-78.37585864</v>
       </c>
       <c r="C1405">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1406" spans="1:3">
@@ -15860,7 +15860,7 @@
         <v>-78.37703881</v>
       </c>
       <c r="C1407">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1408" spans="1:3">
@@ -15871,7 +15871,7 @@
         <v>-78.46166787</v>
       </c>
       <c r="C1408">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1409" spans="1:3">
@@ -15882,7 +15882,7 @@
         <v>-78.49653386</v>
       </c>
       <c r="C1409">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1410" spans="1:3">
@@ -15915,7 +15915,7 @@
         <v>-78.4649794</v>
       </c>
       <c r="C1412">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1413" spans="1:3">
@@ -15926,7 +15926,7 @@
         <v>-78.4628632</v>
       </c>
       <c r="C1413">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1414" spans="1:3">
@@ -15959,7 +15959,7 @@
         <v>-78.48698792</v>
       </c>
       <c r="C1416">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1417" spans="1:3">
@@ -16058,7 +16058,7 @@
         <v>-78.50166496999999</v>
       </c>
       <c r="C1425">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1426" spans="1:3">
@@ -16080,7 +16080,7 @@
         <v>-78.44430860999999</v>
       </c>
       <c r="C1427">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1428" spans="1:3">
@@ -16135,7 +16135,7 @@
         <v>-78.4735125</v>
       </c>
       <c r="C1432">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1433" spans="1:3">
@@ -16157,7 +16157,7 @@
         <v>-78.47361979</v>
       </c>
       <c r="C1434">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1435" spans="1:3">
@@ -16168,7 +16168,7 @@
         <v>-78.39163003</v>
       </c>
       <c r="C1435">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1436" spans="1:3">
@@ -16190,7 +16190,7 @@
         <v>-78.48381218999999</v>
       </c>
       <c r="C1437">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1438" spans="1:3">
@@ -16234,7 +16234,7 @@
         <v>-78.49367199</v>
       </c>
       <c r="C1441">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1442" spans="1:3">
@@ -16289,7 +16289,7 @@
         <v>-78.48810372</v>
       </c>
       <c r="C1446">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1447" spans="1:3">
@@ -16311,7 +16311,7 @@
         <v>-78.46369</v>
       </c>
       <c r="C1448">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1449" spans="1:3">
@@ -16322,7 +16322,7 @@
         <v>-78.50681480999999</v>
       </c>
       <c r="C1449">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1450" spans="1:3">
@@ -16344,7 +16344,7 @@
         <v>-78.38815388</v>
       </c>
       <c r="C1451">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1452" spans="1:3">
@@ -16355,7 +16355,7 @@
         <v>-78.36904583</v>
       </c>
       <c r="C1452">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1453" spans="1:3">
@@ -16399,7 +16399,7 @@
         <v>-78.47003635999999</v>
       </c>
       <c r="C1456">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1457" spans="1:3">
@@ -16421,7 +16421,7 @@
         <v>-78.49372162</v>
       </c>
       <c r="C1458">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1459" spans="1:3">
@@ -16443,7 +16443,7 @@
         <v>-78.49693480000001</v>
       </c>
       <c r="C1460">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1461" spans="1:3">
@@ -16454,7 +16454,7 @@
         <v>-78.4816838</v>
       </c>
       <c r="C1461">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1462" spans="1:3">
@@ -16465,7 +16465,7 @@
         <v>-78.40913949</v>
       </c>
       <c r="C1462">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1463" spans="1:3">
@@ -16476,7 +16476,7 @@
         <v>-78.39815173</v>
       </c>
       <c r="C1463">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1464" spans="1:3">
@@ -16487,7 +16487,7 @@
         <v>-78.48032526999999</v>
       </c>
       <c r="C1464">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1465" spans="1:3">
@@ -16498,7 +16498,7 @@
         <v>-78.49568241</v>
       </c>
       <c r="C1465">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1466" spans="1:3">
@@ -16509,7 +16509,7 @@
         <v>-78.48072227999999</v>
       </c>
       <c r="C1466">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1467" spans="1:3">
@@ -16619,7 +16619,7 @@
         <v>-78.47866245</v>
       </c>
       <c r="C1476">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1477" spans="1:3">
@@ -16652,7 +16652,7 @@
         <v>-78.3874821</v>
       </c>
       <c r="C1479">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1480" spans="1:3">
@@ -16663,7 +16663,7 @@
         <v>-78.47452749999999</v>
       </c>
       <c r="C1480">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1481" spans="1:3">
@@ -16674,7 +16674,7 @@
         <v>-78.29728064</v>
       </c>
       <c r="C1481">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1482" spans="1:3">
@@ -16729,7 +16729,7 @@
         <v>-78.4837189</v>
       </c>
       <c r="C1486">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1487" spans="1:3">
@@ -16740,7 +16740,7 @@
         <v>-78.47121653000001</v>
       </c>
       <c r="C1487">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1488" spans="1:3">
@@ -16762,7 +16762,7 @@
         <v>-78.37978539</v>
       </c>
       <c r="C1489">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1490" spans="1:3">
@@ -16784,7 +16784,7 @@
         <v>-78.39386162</v>
       </c>
       <c r="C1491">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1492" spans="1:3">
@@ -16795,7 +16795,7 @@
         <v>-78.47552951999999</v>
       </c>
       <c r="C1492">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1493" spans="1:3">
@@ -16817,7 +16817,7 @@
         <v>-78.40450463000001</v>
       </c>
       <c r="C1494">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1495" spans="1:3">
@@ -16861,7 +16861,7 @@
         <v>-78.50183663</v>
       </c>
       <c r="C1498">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1499" spans="1:3">
@@ -16949,7 +16949,7 @@
         <v>-78.51119217999999</v>
       </c>
       <c r="C1506">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1507" spans="1:3">
@@ -16960,7 +16960,7 @@
         <v>-78.44814952999999</v>
       </c>
       <c r="C1507">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1508" spans="1:3">
@@ -16971,7 +16971,7 @@
         <v>-78.49851069</v>
       </c>
       <c r="C1508">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1509" spans="1:3">
@@ -17015,7 +17015,7 @@
         <v>-78.4678382</v>
       </c>
       <c r="C1512">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1513" spans="1:3">
@@ -17125,7 +17125,7 @@
         <v>-78.498653</v>
       </c>
       <c r="C1522">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1523" spans="1:3">
@@ -17136,7 +17136,7 @@
         <v>-78.4813982</v>
       </c>
       <c r="C1523">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1524" spans="1:3">
@@ -17147,7 +17147,7 @@
         <v>-78.4837189</v>
       </c>
       <c r="C1524">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1525" spans="1:3">
@@ -17158,7 +17158,7 @@
         <v>-78.49436935999999</v>
       </c>
       <c r="C1525">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1526" spans="1:3">
@@ -17169,7 +17169,7 @@
         <v>-78.46501526</v>
       </c>
       <c r="C1526">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1527" spans="1:3">
@@ -17202,7 +17202,7 @@
         <v>-78.48549661</v>
       </c>
       <c r="C1529">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1530" spans="1:3">
@@ -17213,7 +17213,7 @@
         <v>-78.50029168</v>
       </c>
       <c r="C1530">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1531" spans="1:3">
@@ -17224,7 +17224,7 @@
         <v>-78.50700088000001</v>
       </c>
       <c r="C1531">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1532" spans="1:3">
@@ -17268,7 +17268,7 @@
         <v>-78.5091536</v>
       </c>
       <c r="C1535">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1536" spans="1:3">
@@ -17279,7 +17279,7 @@
         <v>-78.46218285</v>
       </c>
       <c r="C1536">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1537" spans="1:3">
@@ -17290,7 +17290,7 @@
         <v>-78.37746796</v>
       </c>
       <c r="C1537">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1538" spans="1:3">
@@ -17367,7 +17367,7 @@
         <v>-78.50536508</v>
       </c>
       <c r="C1544">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1545" spans="1:3">
@@ -17411,7 +17411,7 @@
         <v>-78.50084957999999</v>
       </c>
       <c r="C1548">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1549" spans="1:3">
@@ -17433,7 +17433,7 @@
         <v>-78.46409619000001</v>
       </c>
       <c r="C1550">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1551" spans="1:3">
@@ -17444,7 +17444,7 @@
         <v>-78.49799744000001</v>
       </c>
       <c r="C1551">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1552" spans="1:3">
@@ -17455,7 +17455,7 @@
         <v>-78.48761019</v>
       </c>
       <c r="C1552">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1553" spans="1:3">
@@ -17466,7 +17466,7 @@
         <v>-78.39999852</v>
       </c>
       <c r="C1553">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1554" spans="1:3">
@@ -17554,7 +17554,7 @@
         <v>-78.4628632</v>
       </c>
       <c r="C1561">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1562" spans="1:3">
@@ -17609,7 +17609,7 @@
         <v>-78.50562927</v>
       </c>
       <c r="C1566">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1567" spans="1:3">
@@ -17653,7 +17653,7 @@
         <v>-78.5033189</v>
       </c>
       <c r="C1570">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1571" spans="1:3">
@@ -17675,7 +17675,7 @@
         <v>-78.38724193</v>
       </c>
       <c r="C1572">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1573" spans="1:3">
@@ -17697,7 +17697,7 @@
         <v>-78.47922024</v>
       </c>
       <c r="C1574">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1575" spans="1:3">
@@ -17719,7 +17719,7 @@
         <v>-78.38367459</v>
       </c>
       <c r="C1576">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1577" spans="1:3">
@@ -17741,7 +17741,7 @@
         <v>-78.49778113000001</v>
       </c>
       <c r="C1578">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1579" spans="1:3">
@@ -17796,7 +17796,7 @@
         <v>-78.4979745</v>
       </c>
       <c r="C1583">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1584" spans="1:3">
@@ -17807,7 +17807,7 @@
         <v>-78.39215710000001</v>
       </c>
       <c r="C1584">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1585" spans="1:3">
@@ -17840,7 +17840,7 @@
         <v>-78.48695037</v>
       </c>
       <c r="C1587">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1588" spans="1:3">
@@ -17895,7 +17895,7 @@
         <v>-78.40141472000001</v>
       </c>
       <c r="C1592">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1593" spans="1:3">
@@ -17917,7 +17917,7 @@
         <v>-78.47725149999999</v>
       </c>
       <c r="C1594">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1595" spans="1:3">
@@ -17983,7 +17983,7 @@
         <v>-78.50480852</v>
       </c>
       <c r="C1600">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1601" spans="1:3">
@@ -18005,7 +18005,7 @@
         <v>-78.49267896000001</v>
       </c>
       <c r="C1602">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1603" spans="1:3">
@@ -18027,7 +18027,7 @@
         <v>-78.46676675000001</v>
       </c>
       <c r="C1604">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1605" spans="1:3">
@@ -18049,7 +18049,7 @@
         <v>-78.47947773999999</v>
       </c>
       <c r="C1606">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1607" spans="1:3">
@@ -18060,7 +18060,7 @@
         <v>-78.39650628</v>
       </c>
       <c r="C1607">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1608" spans="1:3">
@@ -18071,7 +18071,7 @@
         <v>-78.40643582</v>
       </c>
       <c r="C1608">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1609" spans="1:3">
@@ -18093,7 +18093,7 @@
         <v>-78.48314281</v>
       </c>
       <c r="C1610">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1611" spans="1:3">
@@ -18104,7 +18104,7 @@
         <v>-78.40446171000001</v>
       </c>
       <c r="C1611">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1612" spans="1:3">
@@ -18126,7 +18126,7 @@
         <v>-78.41035989</v>
       </c>
       <c r="C1613">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1614" spans="1:3">
@@ -18159,7 +18159,7 @@
         <v>-78.39291749</v>
       </c>
       <c r="C1616">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1617" spans="1:3">
@@ -18214,7 +18214,7 @@
         <v>-78.48549948</v>
       </c>
       <c r="C1621">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1622" spans="1:3">
@@ -18225,7 +18225,7 @@
         <v>-78.47587285</v>
       </c>
       <c r="C1622">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1623" spans="1:3">
@@ -18236,7 +18236,7 @@
         <v>-78.47537932</v>
       </c>
       <c r="C1623">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1624" spans="1:3">
@@ -18258,7 +18258,7 @@
         <v>-78.37566552</v>
       </c>
       <c r="C1625">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1626" spans="1:3">
@@ -18313,7 +18313,7 @@
         <v>-78.41031966</v>
       </c>
       <c r="C1630">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1631" spans="1:3">
@@ -18324,7 +18324,7 @@
         <v>-78.48089394</v>
       </c>
       <c r="C1631">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1632" spans="1:3">
@@ -18357,7 +18357,7 @@
         <v>-78.50690064</v>
       </c>
       <c r="C1634">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1635" spans="1:3">
@@ -18368,7 +18368,7 @@
         <v>-78.49522767000001</v>
       </c>
       <c r="C1635">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1636" spans="1:3">
@@ -18379,7 +18379,7 @@
         <v>-78.49244353</v>
       </c>
       <c r="C1636">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1637" spans="1:3">
